--- a/Fehlerbewertung/error_kf.xlsx
+++ b/Fehlerbewertung/error_kf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\Karlsruher Institut für Technologie\4. Semester\Compressive Sensing + Filterung\1 Codes Compressive\Fehlerbewertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E4BCD-2AB8-46A8-BB87-C7885E022B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806E35A5-4014-40BF-A755-CF5F0EBD2023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2655" windowWidth="21600" windowHeight="11835" xr2:uid="{B2EE9CD2-1901-4137-9C4E-AF557A655E53}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{B2EE9CD2-1901-4137-9C4E-AF557A655E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
